--- a/experiment_stimuli/Block7.xlsx
+++ b/experiment_stimuli/Block7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frances\Desktop\sdt\experiment_stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E9EF61-8A54-4B75-9B62-3BF5656CEEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AD3367-9C8C-4FAD-88BB-6360B2718623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Block</t>
   </si>
@@ -34,9 +34,6 @@
     <t>One_subsubj_two_subObj</t>
   </si>
   <si>
-    <t>Correct_answer</t>
-  </si>
-  <si>
     <t>LiterallyTrue</t>
   </si>
   <si>
@@ -95,6 +92,15 @@
   </si>
   <si>
     <t>The job was a career lever.</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>mouse_key</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -385,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -393,16 +399,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -410,16 +416,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -427,16 +433,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -444,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -461,16 +467,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -478,16 +484,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -495,16 +501,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -512,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -529,16 +535,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -546,16 +552,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -563,16 +569,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -580,16 +586,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -597,16 +603,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -614,16 +620,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -631,16 +637,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -648,16 +654,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_stimuli/Block7.xlsx
+++ b/experiment_stimuli/Block7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frances\Desktop\sdt\experiment_stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AD3367-9C8C-4FAD-88BB-6360B2718623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F724AD-0D57-453F-94E3-BDC175491C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17172" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Block</t>
   </si>
@@ -94,13 +94,7 @@
     <t>The job was a career lever.</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>mouse_key</t>
+    <t>correct_answer</t>
   </si>
 </sst>
 </file>
@@ -365,7 +359,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E1" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -391,7 +385,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -407,8 +401,8 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -424,8 +418,8 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -441,8 +435,8 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -458,8 +452,8 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -475,8 +469,8 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -492,8 +486,8 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+      <c r="E7" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -509,8 +503,8 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -526,8 +520,8 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -543,8 +537,8 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -560,8 +554,8 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -577,8 +571,8 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -594,8 +588,8 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -611,8 +605,8 @@
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -628,8 +622,8 @@
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -645,8 +639,8 @@
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -662,8 +656,8 @@
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
